--- a/inst/demo_adapt2.xlsx
+++ b/inst/demo_adapt2.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="2"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="survey" sheetId="1" r:id="rId1"/>
-    <sheet name="choices" sheetId="2" r:id="rId2"/>
-    <sheet name="settings" sheetId="3" r:id="rId3"/>
+    <sheet name="survey" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="choices" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="settings" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="140001" calcOnSave="0" concurrentCalc="0"/>
+  <calcPr calcOnSave="0" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -350,7 +350,7 @@
     <t>begin_interview</t>
   </si>
   <si>
-    <t xml:space="preserve">009a. May I begin the interview now?</t>
+    <t xml:space="preserve">Chaging the label  -- May I begin the interview now?</t>
   </si>
   <si>
     <t>20</t>
@@ -808,13 +808,13 @@
     <t>64</t>
   </si>
   <si>
-    <t xml:space="preserve">select_one floor_list</t>
+    <t xml:space="preserve">select_multiple floor_list</t>
   </si>
   <si>
     <t>floor</t>
   </si>
   <si>
-    <t xml:space="preserve">301. Main material of the floor</t>
+    <t xml:space="preserve">301. Main material of the floor - chnage label</t>
   </si>
   <si>
     <t>Observe.</t>
@@ -1907,6 +1907,9 @@
     <t>v</t>
   </si>
   <si>
+    <t>form_id</t>
+  </si>
+  <si>
     <t>RQ-etr6-v1</t>
   </si>
   <si>
@@ -1917,9 +1920,6 @@
   </si>
   <si>
     <t>vT6CzZdSmJJvyeXQmTRFnu</t>
-  </si>
-  <si>
-    <t>form_id</t>
   </si>
 </sst>
 </file>
@@ -1929,11 +1929,14 @@
   <fonts count="4">
     <font>
       <name val="Arial"/>
+      <color theme="1"/>
       <sz val="10.000000"/>
     </font>
     <font>
       <name val="Arial"/>
+      <color theme="11"/>
       <sz val="10.000000"/>
+      <u/>
     </font>
     <font>
       <name val="Arial"/>
@@ -1943,9 +1946,7 @@
     </font>
     <font>
       <name val="Arial"/>
-      <color theme="11"/>
       <sz val="10.000000"/>
-      <u/>
     </font>
   </fonts>
   <fills count="2">
@@ -1966,22 +1967,27 @@
     </border>
   </borders>
   <cellStyleXfs count="3">
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf fontId="2" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf fontId="3" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyProtection="0"/>
+    <xf fontId="1" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyProtection="0"/>
+    <xf fontId="2" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
-    <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf fontId="3" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyProtection="1"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="1" builtinId="9"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -2314,71 +2320,11 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface="Arial"/>
         <a:cs typeface="Arial"/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface="Arial"/>
         <a:cs typeface="Arial"/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2386,7 +2332,7 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -2409,7 +2355,7 @@
           </a:gsLst>
           <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -2485,7 +2431,7 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -2507,11 +2453,9 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
+          <a:path path="circle"/>
         </a:gradFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -2526,16 +2470,14 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
+          <a:path path="circle"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults>
     <a:spDef>
-      <a:spPr/>
+      <a:spPr bwMode="auto"/>
       <a:bodyPr/>
       <a:lstStyle/>
       <a:style>
@@ -2554,7 +2496,7 @@
       </a:style>
     </a:spDef>
     <a:lnDef>
-      <a:spPr/>
+      <a:spPr bwMode="auto"/>
       <a:bodyPr/>
       <a:lstStyle/>
       <a:style>
@@ -2579,12 +2521,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetPr enableFormatConditionsCalculation="0">
-    <outlinePr summaryBelow="0" summaryRight="0"/>
+    <outlinePr applyStyles="0" summaryBelow="0" summaryRight="0" showOutlineSymbols="1"/>
+    <pageSetUpPr autoPageBreaks="1" fitToPage="0"/>
   </sheetPr>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0"/>
+    <sheetView topLeftCell="A37" zoomScale="130" workbookViewId="0">
+      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
@@ -4256,8 +4201,9 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.29999999999999999" right="0.29999999999999999" top="0.60999999999999988" bottom="0.36999999999999994" header="0.10000000000000002" footer="0.10000000000000002"/>
-  <pageSetup paperSize="9" pageOrder="overThenDown" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.29999999999999999" right="0.29999999999999999" top="0.60999999999999988" bottom="0.36999999999999988" header="0.10000000000000002" footer="0.10000000000000002"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="4294967295" fitToWidth="1" fitToHeight="1" pageOrder="overThenDown" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="1" errors="displayed" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter>
     <oddHeader>&amp;P</oddHeader>
     <oddFooter>&amp;F</oddFooter>
@@ -4268,12 +4214,15 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetPr enableFormatConditionsCalculation="0">
-    <outlinePr summaryBelow="0" summaryRight="0"/>
+    <outlinePr applyStyles="0" summaryBelow="0" summaryRight="0" showOutlineSymbols="1"/>
+    <pageSetUpPr autoPageBreaks="1" fitToPage="0"/>
   </sheetPr>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="100" workbookViewId="0">
+      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
@@ -6077,8 +6026,9 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.29999999999999999" right="0.29999999999999999" top="0.60999999999999988" bottom="0.36999999999999994" header="0.10000000000000002" footer="0.10000000000000002"/>
-  <pageSetup paperSize="9" pageOrder="overThenDown" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.29999999999999999" right="0.29999999999999999" top="0.60999999999999988" bottom="0.36999999999999988" header="0.10000000000000002" footer="0.10000000000000002"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="4294967295" fitToWidth="1" fitToHeight="1" pageOrder="overThenDown" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="1" errors="displayed" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter>
     <oddHeader>&amp;P</oddHeader>
     <oddFooter>&amp;F</oddFooter>
@@ -6089,12 +6039,15 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetPr enableFormatConditionsCalculation="0">
-    <outlinePr summaryBelow="0" summaryRight="0"/>
+    <outlinePr applyStyles="0" summaryBelow="0" summaryRight="0" showOutlineSymbols="1"/>
+    <pageSetUpPr autoPageBreaks="1" fitToPage="0"/>
   </sheetPr>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView zoomScale="100" workbookViewId="0">
+      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
@@ -6122,21 +6075,21 @@
         <v>626</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>629</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>628</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>582</v>
@@ -6145,18 +6098,19 @@
         <v>30</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>30</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.29999999999999999" right="0.29999999999999999" top="0.60999999999999988" bottom="0.36999999999999994" header="0.10000000000000002" footer="0.10000000000000002"/>
-  <pageSetup paperSize="9" pageOrder="overThenDown" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.29999999999999999" right="0.29999999999999999" top="0.60999999999999988" bottom="0.36999999999999988" header="0.10000000000000002" footer="0.10000000000000002"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="4294967295" fitToWidth="1" fitToHeight="1" pageOrder="overThenDown" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="1" errors="displayed" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter>
     <oddHeader>&amp;P</oddHeader>
     <oddFooter>&amp;F</oddFooter>
